--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2541B0AA-CC23-48E8-9C49-F85DED8BF562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CBC1AD-24CE-4E79-801F-E1ABBBE837BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{DB8BD75F-13EE-4110-8F89-58668A2AD1F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{DB8BD75F-13EE-4110-8F89-58668A2AD1F1}"/>
   </bookViews>
   <sheets>
     <sheet name="ruleToJSON" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>Severity</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>已修改正则，排除前面出现find和select的情况</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>RULE</t>
   </si>
 </sst>
 </file>
@@ -617,35 +623,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51717F5A-2AC6-4D1B-A472-54384BD6F2B4}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" customWidth="1"/>
-    <col min="2" max="2" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.1328125" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.53125" customWidth="1"/>
-    <col min="11" max="11" width="16.796875" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -703,8 +709,14 @@
       <c r="S1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -764,8 +776,12 @@
 )</f>
         <v>{"rule1":{"severity":3,"searchConditions":[{"condition":"&lt;that appears&gt;","decision":"true"},{"condition":"&lt;the [!,.！，。^13]@ dialog box that appears&gt;","decision":"true"}],"message":"Do not use \"that appears\" if the name of the dialog box is clear.","correction":"Remove \"that appears\"","examples":[{"positive":"In the Create Migration Task dialog box, set the migration task parameters.","negative":"In the Create Migration Task dialog box that appears, set the migration task parameters."},{"positive":"In the dialog box that appears, set the required parameters.","negative":""}],"status":"enabled"}</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U2" t="str">
+        <f>IF(S2="DISABLE", "", _xlfn.CONCAT(IF(OR(A2=1, A2="1"), "TRUNCATE TABLE rules; ", ""), "INSERT INTO rules (rule_id, rule_msg, correction, pos_example, neg_example) VALUES (", A2, ", '", SUBSTITUTE(K2, "'", "\'"), "', '", SUBSTITUTE(L2, "'", "\'"), "', '", SUBSTITUTE(N2, "'", "\'"), "', '", SUBSTITUTE(O2, "'", "\'"), "');"))</f>
+        <v>TRUNCATE TABLE rules; INSERT INTO rules (rule_id, rule_msg, correction, pos_example, neg_example) VALUES (1, 'Do not use "that appears" if the name of the dialog box is clear.', 'Remove "that appears"', 'In the Create Migration Task dialog box, set the migration task parameters.', 'In the Create Migration Task dialog box that appears, set the migration task parameters.');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -839,6 +855,16 @@
 _xlfn.CONCAT(",""status"":""",IF(S3="Enable","enabled","disabled"),"""}",IF(A4="","}",""))
 )</f>
         <v>,"rule2":{"severity":3,"searchConditions":[{"condition":"&lt;With&gt;","decision":"true"},{"condition":"11","decision":"true"},{"condition":"12","decision":"false"}],"message":"Don't start a sentence with \"With\". Rewrite it in a different way.","correction":"2\"332","productApplied":"VPC","examples":[{"positive":"Window\"s Hello enables you to improve efficiency.","negative":"With \"Windows Hello, your efficiency is improved."},{"positive":"Pos\"Exp2","negative":"Neg\"Exp2"}],"ref_link":"a","status":"disabled"}}</v>
+      </c>
+      <c r="U3" t="str">
+        <f>IF(S3="DISABLE", "", _xlfn.CONCAT(IF(OR(A3=1, A3="1"), "TRUNCATE TABLE rules; ", ""), "INSERT INTO rules (rule_id, rule_msg, correction, pos_example, neg_example) VALUES (", A3, ", '", SUBSTITUTE(K3, "'", "\'"), "', '", SUBSTITUTE(L3, "'", "\'"), "', '", SUBSTITUTE(N3, "'", "\'"), "', '", SUBSTITUTE(O3, "'", "\'"), "');"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO rules (rule_id, rule_msg, correction) VALUES (", A2, ", '", SUBSTITUTE(K2, "'", "\'"), "', '", SUBSTITUTE(L2, "'", "\'"), "', ')")</f>
+        <v>INSERT INTO rules (rule_id, rule_msg, correction) VALUES (1, 'Do not use "that appears" if the name of the dialog box is clear.', 'Remove "that appears"', ')</v>
       </c>
     </row>
   </sheetData>
@@ -863,22 +889,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51A1A2E-E610-4376-8E14-7786760D54E0}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.86328125" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.265625" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -898,7 +924,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>44011.62736111111</v>
       </c>
@@ -922,7 +948,7 @@
         <v>INSERT INTO feedback_eval (check_date, sentence, rule_hit, evaluation, feedback) VALUES (STR_TO_DATE('06/29/2020 15:03','%m/%d/%Y %H:%i:%s'), 'In the upper-right corner of the page, click Adjust full migration rate.', 1, '修正规则', '已修改正则，排除了of...page的情况');</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>44012.482893518521</v>
       </c>
@@ -946,7 +972,7 @@
         <v>INSERT INTO feedback_eval (check_date, sentence, rule_hit, evaluation, feedback) VALUES (STR_TO_DATE('06/30/2020 11:35','%m/%d/%Y %H:%i:%s'), 'NAS uses customer master keys (CMKs) to encrypt file systems and envelope encryption.', 8, '修正规则', '已修改正则，报错条件限定为master node');</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>44012.482893518521</v>
       </c>
@@ -988,13 +1014,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1010,7 +1036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1018,12 +1044,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
